--- a/nyc.xlsx
+++ b/nyc.xlsx
@@ -129,7 +129,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Population by borough</a:t>
+              <a:t>NYC population by borough</a:t>
             </a:r>
           </a:p>
         </c:rich>
